--- a/public/template/Silk Title_sample_template.xlsx
+++ b/public/template/Silk Title_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{303BF0DF-BAFA-43D6-9978-961EB9DC5F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B5D09A-A694-4A78-921D-78C617FCE719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="1920" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>Typing(T1)</t>
   </si>
   <si>
-    <t>Full Search</t>
-  </si>
-  <si>
     <t>SIPL6118</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Shelby</t>
   </si>
   <si>
-    <t>ST18-002</t>
-  </si>
-  <si>
     <t>Silk Title</t>
   </si>
   <si>
@@ -144,6 +138,12 @@
   </si>
   <si>
     <t>Type only</t>
+  </si>
+  <si>
+    <t>ST18-001</t>
+  </si>
+  <si>
+    <t>Current Owner Search</t>
   </si>
 </sst>
 </file>
@@ -729,18 +729,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1053,18 +1042,18 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5546875" customWidth="1"/>
   </cols>
@@ -1083,10 +1072,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
@@ -1115,16 +1104,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45437.041666608799</v>
+        <v>45436.041666666664</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -1133,22 +1122,22 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -1160,7 +1149,7 @@
         <v>45440.041666608799</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
@@ -1169,7 +1158,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -1178,7 +1167,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>19</v>
@@ -1198,16 +1187,18 @@
         <v>45443.041666608799</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -1216,7 +1207,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>19</v>
@@ -1225,7 +1216,7 @@
         <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>22</v>

--- a/public/template/Silk Title_sample_template.xlsx
+++ b/public/template/Silk Title_sample_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tester\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B5D09A-A694-4A78-921D-78C617FCE719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{303BF0DF-BAFA-43D6-9978-961EB9DC5F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="1920" windowWidth="22752" windowHeight="6816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="with_all_correctdata" sheetId="1" r:id="rId1"/>
@@ -107,6 +107,9 @@
     <t>Typing(T1)</t>
   </si>
   <si>
+    <t>Full Search</t>
+  </si>
+  <si>
     <t>SIPL6118</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>Shelby</t>
   </si>
   <si>
+    <t>ST18-002</t>
+  </si>
+  <si>
     <t>Silk Title</t>
   </si>
   <si>
@@ -138,12 +144,6 @@
   </si>
   <si>
     <t>Type only</t>
-  </si>
-  <si>
-    <t>ST18-001</t>
-  </si>
-  <si>
-    <t>Current Owner Search</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1042,18 +1053,18 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5546875" customWidth="1"/>
   </cols>
@@ -1072,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
@@ -1104,16 +1115,16 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45436.041666666664</v>
+        <v>45437.041666608799</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -1122,22 +1133,22 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -1149,7 +1160,7 @@
         <v>45440.041666608799</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
@@ -1158,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -1167,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>19</v>
@@ -1187,18 +1198,16 @@
         <v>45443.041666608799</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -1207,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>19</v>
@@ -1216,7 +1225,7 @@
         <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>22</v>
